--- a/src/test/resources/Example RTM.xlsx
+++ b/src/test/resources/Example RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="299">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -221,26 +221,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> the user provides a username "&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">valid </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">username"&gt;</t>
+      <t xml:space="preserve"> the user provides a username "&lt;valid username"&gt;</t>
     </r>
   </si>
   <si>
@@ -411,7 +392,27 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Then the user should get a browser alert saying "&lt;error&gt;"</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user should get a browser alert saying "&lt;error&gt;"</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">UR2, UR3, UR4, UR5, UR6</t>
@@ -807,6 +808,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user is logged in</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Happy Path Planet Viewing</t>
   </si>
   <si>
@@ -819,6 +843,75 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user owns the planet "Earth"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user should see "Earth" on the home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">And </t>
     </r>
     <r>
@@ -829,7 +922,82 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">the user owns "&lt;planet&gt;"</t>
+      <t xml:space="preserve">the planet "Earth" should have an id of 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the moon "Luna" should have an id of 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SR2, PR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Path Moon Viewing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user owns the planet "Earth"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the planet "Earth" owns the moon "Luna"</t>
     </r>
   </si>
   <si>
@@ -852,14 +1020,60 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">the user should see "&lt;planet&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SR2, PR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy Path Moon Viewing</t>
+      <t xml:space="preserve">the user should see "Luna" on the home page</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Planet Viewing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user owns no planets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should not see any planets on the home page</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Moon Viewing</t>
   </si>
   <si>
     <r>
@@ -881,7 +1095,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">"&lt;planet&gt;" owns "&lt;moon&gt;"</t>
+      <t xml:space="preserve">the planet "Earth" does not own any moons</t>
     </r>
   </si>
   <si>
@@ -904,11 +1118,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">the user should see "&lt;planet&gt;" and "&lt;moon&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Planet Viewing</t>
+      <t xml:space="preserve">the user should not see any moons for "Earth"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Path Planet Adding</t>
   </si>
   <si>
     <r>
@@ -930,7 +1144,151 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> the user owns no planets</t>
+      <t xml:space="preserve"> the user selects "Planet" from the options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the planet "&lt;valid planet name&gt;" does not exist in the database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a planet name "&lt;valid planet name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PR1, PR2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user tries to add the planet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&lt;valid planet name&gt;" should be added to the database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the planet "&lt;valid planet name&gt; in their list of planets and moons</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Invalid Planet Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a planet name "&lt;invalid planet name&gt;"</t>
     </r>
   </si>
   <si>
@@ -953,29 +1311,106 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> the user should not see any planets</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Moon Viewing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the user owns "&lt;planet&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And "&lt;planet&gt;" does not own any moons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the user should not see any moons for "&lt;planet&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy Path Planet Adding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user provides a valid planet name "&lt;planet&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR1, PR2</t>
+      <t xml:space="preserve"> the user should see a browser alert saying "Invalid planet name"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Planet Already Exists</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the planet "&lt;planet&gt;" exists in the database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user provides planet name "&lt;planet&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user should see a browser alert saying "Invalid planet name"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Path Planet with Image Adding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a valid planet name "&lt;planet&gt;"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -997,11 +1432,57 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> the user tries to add the planet</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Then "&lt;planet&gt;" should be added to the database</t>
+      <t xml:space="preserve"> the user provides a planet image "&lt;filename&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the planet "&lt;planet&gt;" should be added to the database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the planet "&lt;planet&gt;" should have image data</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PR5, PR6</t>
   </si>
   <si>
     <r>
@@ -1027,55 +1508,510 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sad Path Invalid Planet Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user provides a invalid planet name "&lt;planet&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the user should see a browser alert saying "Invalid planet name"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Planet Already Exists</t>
+    <t xml:space="preserve">Sad Path Planet with Bad Image Adding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides an invalid image "&lt;filename&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user should see a browser alert saying "Invalid file type"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Path Moon Adding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user selects "Moon" from the options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a moon "&lt;valid moon name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MR1, MR2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides the planet that owns the moon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user tries to add the moon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the moon "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;valid moon name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">" should be added to the database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the moon "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">valid moon name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;" in their list of planets and moons</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SR2, PR4, MR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Moon Adding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a moon name "&lt;invalid moon name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides the planet "&lt;planet&gt;" that owns the moon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user should see a browser alert saying "Invalid moon name"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Existing Moon Adding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And "&lt;moon&gt;" exists in the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user provides a moon name "&lt;moon&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And the user provides the planet "&lt;planet&gt;" that owns the moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then the user should see a browser alert saying "Invalid moon name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Path Moon with Image Adding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user provides the planet "&lt;planet&gt;" that owns the moon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user provides a valid image "&lt;filename&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the moon "&lt;moon&gt;" should be added to the database</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">And the moon should have a picture in the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR6, MR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Moon with Bad Image Adding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user provides a moon "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">invalid moon name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">And the user provides a moon image "&lt;invalid filename&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Path Moon Deleting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user has entered the planet "&lt;planet&gt;"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user tries to delete the planet</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Then "&lt;planet&gt;" should be removed from the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Planet Not Found Deleting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And "&lt;planet&gt;" does not exist in the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user has entered "&lt;planet&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then the user should see a browser alert saying "Planet not found"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Planet Not Owned Deleting</t>
   </si>
   <si>
     <t xml:space="preserve">And "&lt;planet&gt;" exists in the database</t>
   </si>
   <si>
-    <t xml:space="preserve">When the user provides planet name "&lt;planet&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy Path Planet with Image Adding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the user provides an image "&lt;filename&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And "&lt;filename&gt;" should be added to the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR5, PR6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the planet’s image is set to "&lt;filename&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Planet with Bad Image Adding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the user provides an invalid image "&lt;filename&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the user should see a browser alert saying "Invalid file type"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy Path Moon Adding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user provides a valid moon name "&lt;moon&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR1, MR2</t>
+    <t xml:space="preserve">And the user is not the owner of "&lt;planet&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And "&lt;moon&gt;" exists for that planet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user has entered "&lt;moon&gt;"</t>
   </si>
   <si>
     <r>
@@ -1097,30 +2033,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> the user provides the planet that owns the moon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user tries to add the moon</t>
+      <t xml:space="preserve"> the user tries to delete the moon</t>
     </r>
   </si>
   <si>
@@ -1143,153 +2056,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> &lt;moon&gt; should be added to the database</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SR2, PR4, MR5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Moon Adding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user provides an invalid moon name "&lt;moon&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the user provides the planet "&lt;planet&gt;" that owns the moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the user should see a browser alert saying "Invalid moon name"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Existing Moon Adding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And "&lt;moon&gt;" exists in the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user provides a moon name "&lt;moon&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy Path Moon with Image Adding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the user provides a valid image "&lt;filename&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then "&lt;moon&gt;" should be added to the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the moon’s picture should be "&lt;filename&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR6, MR7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Moon with Bad Image Adding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the user provides a invalid image "&lt;filename&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the user should see a browser alert saying "Invalid filetype"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy Path Moon Deleting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user has entered "&lt;planet&gt;"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user tries to delete the planet</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Then "&lt;planet&gt;" should be removed from the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Planet Not Found Deleting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And "&lt;planet&gt;" does not exist in the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the user should see a browser alert saying "Planet not found"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Planet Not Owned Deleting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the user is not the owner of "&lt;planet&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And "&lt;moon&gt;" exists for that planet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user has entered "&lt;moon&gt;"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user tries to delete the moon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve"> the user should see an updated list of planets/moons</t>
     </r>
   </si>
@@ -1469,6 +2235,117 @@
   </si>
   <si>
     <t xml:space="preserve">Moon #23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filetypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planet.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planet.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planet.bmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planet.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planet.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planet.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planet.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planet.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planet.tga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon.bmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon.tga</t>
   </si>
   <si>
     <t xml:space="preserve">Username</t>
@@ -1666,7 +2543,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1709,6 +2586,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2232,10 +3113,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C94" activeCellId="0" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2779,58 +3660,47 @@
         <v>40</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F47" s="8" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>40</v>
-      </c>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="8" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="2"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="8"/>
@@ -2838,46 +3708,46 @@
     <row r="52" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
-        <v>91</v>
+      <c r="C52" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
+    <row r="53" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C53" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="8" t="n">
-        <v>22</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="8"/>
@@ -2886,207 +3756,196 @@
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+    <row r="57" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="8" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
       <c r="C58" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="8" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>40</v>
-      </c>
+    <row r="61" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="8" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10"/>
-      <c r="B62" s="8"/>
+      <c r="D61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C62" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
+      <c r="F62" s="8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10"/>
+    <row r="64" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+    <row r="66" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F66" s="8" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C67" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" s="8" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="11" t="s">
-        <v>110</v>
+      <c r="C71" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="8"/>
@@ -3095,10 +3954,10 @@
       <c r="A74" s="10"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="8"/>
@@ -3108,50 +3967,53 @@
         <v>8</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F75" s="8" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="10"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="10"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="11" t="s">
-        <v>113</v>
+      <c r="C77" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="8"/>
@@ -3162,114 +4024,105 @@
       <c r="C80" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="8"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10"/>
-      <c r="B81" s="8"/>
+    <row r="81" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C81" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="8" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="10"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F83" s="8" t="n">
-        <v>29</v>
-      </c>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="11" t="s">
-        <v>118</v>
+      <c r="C85" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10"/>
-      <c r="B87" s="8"/>
+    <row r="87" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C87" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="F87" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="A88" s="10"/>
+      <c r="B88" s="8"/>
       <c r="C88" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F88" s="8" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="10"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="8"/>
@@ -3278,7 +4131,7 @@
       <c r="A90" s="10"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="8"/>
@@ -3286,17 +4139,17 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10"/>
       <c r="B91" s="8"/>
-      <c r="C91" s="9" t="s">
-        <v>124</v>
+      <c r="C91" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="8"/>
@@ -3305,101 +4158,93 @@
       <c r="A93" s="10"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="94" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F94" s="8" t="n">
-        <v>34</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10"/>
-      <c r="B96" s="8"/>
+    <row r="96" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C96" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="8"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="8" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="10"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="10"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="99" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F99" s="8" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10"/>
       <c r="B100" s="8"/>
-      <c r="C100" s="6" t="s">
-        <v>132</v>
+      <c r="C100" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="8"/>
     </row>
-    <row r="101" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="8"/>
@@ -3408,54 +4253,57 @@
       <c r="A102" s="10"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10"/>
-      <c r="B103" s="8"/>
+    <row r="103" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C103" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" s="8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="10"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="A105" s="10"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F105" s="8" t="n">
-        <v>33</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="8"/>
@@ -3464,25 +4312,25 @@
       <c r="A107" s="10"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="8"/>
@@ -3493,73 +4341,70 @@
       <c r="C110" s="9" t="s">
         <v>136</v>
       </c>
+      <c r="D110" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="8" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="10"/>
       <c r="B112" s="8"/>
-      <c r="C112" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>138</v>
+      <c r="C112" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="10"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="114" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="10"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E114" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F114" s="8" t="n">
-        <v>32</v>
-      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="8"/>
@@ -3568,146 +4413,143 @@
       <c r="A117" s="10"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10"/>
-      <c r="B118" s="8"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C118" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="8"/>
-    </row>
-    <row r="119" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F118" s="8" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="10"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F120" s="8" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="10"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7"/>
+    <row r="122" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="10"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7"/>
+    <row r="123" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="10"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="10"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7"/>
+      <c r="A125" s="10"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
-        <v>10</v>
+    <row r="126" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F126" s="8" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="10"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7"/>
+    <row r="128" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="10"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7"/>
+    <row r="129" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="10"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7"/>
+      <c r="A130" s="10"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9" t="s">
         <v>148</v>
@@ -3715,179 +4557,171 @@
       <c r="E130" s="2"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="131" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="10"/>
+      <c r="B131" s="8"/>
       <c r="C131" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E131" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F131" s="8" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="10"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7"/>
+    <row r="133" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="10"/>
       <c r="B133" s="8"/>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7"/>
+    <row r="134" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="10"/>
       <c r="B134" s="8"/>
-      <c r="C134" s="9" t="s">
-        <v>143</v>
+      <c r="C134" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7"/>
+    <row r="135" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="10"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7"/>
-      <c r="B136" s="8"/>
+    <row r="136" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C136" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F136" s="8" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="A137" s="10"/>
+      <c r="B137" s="8"/>
       <c r="C137" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F137" s="8" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="10"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7"/>
+    <row r="139" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="10"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7"/>
+    <row r="140" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="10"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7"/>
+    <row r="141" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="10"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7"/>
+    <row r="142" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="10"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
+    <row r="143" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="10"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F143" s="8" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7"/>
-      <c r="B144" s="8"/>
+      <c r="B144" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C144" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" s="8"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F144" s="8" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="9" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="8"/>
@@ -3896,7 +4730,7 @@
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="8"/>
@@ -3907,131 +4741,490 @@
       <c r="C148" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E148" s="2"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>40</v>
-      </c>
+    <row r="149" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7"/>
+      <c r="B149" s="8"/>
       <c r="C149" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E149" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F149" s="8" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="2"/>
+      <c r="F149" s="8"/>
+    </row>
+    <row r="150" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9" t="s">
-        <v>151</v>
+        <v>125</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7"/>
-      <c r="B152" s="8"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C152" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E152" s="2"/>
-      <c r="F152" s="8"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F152" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="1"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" s="8"/>
+    </row>
+    <row r="158" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" s="8"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F159" s="8" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="1"/>
+      <c r="A160" s="7"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="1"/>
+      <c r="A161" s="7"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="1"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="1"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="1"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A164" s="7"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" s="8"/>
+    </row>
+    <row r="165" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="7"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="8"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F166" s="8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="7"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" s="8"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="7"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" s="8"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" s="8"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="7"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="8"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="7"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="8"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="7"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" s="8"/>
+    </row>
+    <row r="173" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="7"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" s="8"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F174" s="8" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" s="8"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="7"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="8"/>
+    </row>
+    <row r="177" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="7"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" s="8"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="7"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" s="8"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="7"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="8"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="7"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" s="8"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F182" s="8" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="8"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="8"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="7"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="8"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="7"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" s="8"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="7"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" s="8"/>
+    </row>
+    <row r="189" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="7"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" s="8"/>
+    </row>
+    <row r="190" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="7"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" s="8"/>
+    </row>
+    <row r="191" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="7"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" s="8"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="116">
     <mergeCell ref="A2:A8"/>
@@ -4070,88 +5263,88 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="E75:E82"/>
-    <mergeCell ref="F75:F82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="F99:F104"/>
-    <mergeCell ref="A105:A113"/>
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="E105:E113"/>
-    <mergeCell ref="F105:F113"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="E114:E119"/>
-    <mergeCell ref="F114:F119"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="E120:E125"/>
-    <mergeCell ref="F120:F125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="E126:E130"/>
-    <mergeCell ref="F126:F130"/>
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="B131:B136"/>
-    <mergeCell ref="E131:E136"/>
-    <mergeCell ref="F131:F136"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="E137:E142"/>
-    <mergeCell ref="F137:F142"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="E143:E148"/>
-    <mergeCell ref="F143:F148"/>
-    <mergeCell ref="A149:A156"/>
-    <mergeCell ref="B149:B156"/>
-    <mergeCell ref="E149:E156"/>
-    <mergeCell ref="F149:F156"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="F67:F74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="F75:F80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="E81:E86"/>
+    <mergeCell ref="F81:F86"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="B87:B95"/>
+    <mergeCell ref="E87:E95"/>
+    <mergeCell ref="F87:F95"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="E96:E102"/>
+    <mergeCell ref="F96:F102"/>
+    <mergeCell ref="A103:A110"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="E103:E110"/>
+    <mergeCell ref="F103:F110"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="E111:E117"/>
+    <mergeCell ref="F111:F117"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="B118:B125"/>
+    <mergeCell ref="E118:E125"/>
+    <mergeCell ref="F118:F125"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B126:B135"/>
+    <mergeCell ref="E126:E135"/>
+    <mergeCell ref="F126:F135"/>
+    <mergeCell ref="A136:A143"/>
+    <mergeCell ref="B136:B143"/>
+    <mergeCell ref="E136:E143"/>
+    <mergeCell ref="F136:F143"/>
+    <mergeCell ref="A144:A151"/>
+    <mergeCell ref="B144:B151"/>
+    <mergeCell ref="E144:E151"/>
+    <mergeCell ref="F144:F151"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="E152:E158"/>
+    <mergeCell ref="F152:F158"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="B159:B165"/>
+    <mergeCell ref="E159:E165"/>
+    <mergeCell ref="F159:F165"/>
+    <mergeCell ref="A166:A173"/>
+    <mergeCell ref="B166:B173"/>
+    <mergeCell ref="E166:E173"/>
+    <mergeCell ref="F166:F173"/>
+    <mergeCell ref="A174:A181"/>
+    <mergeCell ref="B174:B181"/>
+    <mergeCell ref="E174:E181"/>
+    <mergeCell ref="F174:F181"/>
+    <mergeCell ref="A182:A191"/>
+    <mergeCell ref="B182:B191"/>
+    <mergeCell ref="E182:E191"/>
+    <mergeCell ref="F182:F191"/>
   </mergeCells>
-  <conditionalFormatting sqref="B167:B1048576 B1:B156">
+  <conditionalFormatting sqref="B202:B1048576 B1:B191">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Positive"</formula>
     </cfRule>
@@ -4174,10 +5367,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4187,59 +5380,59 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -4247,10 +5440,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -4258,10 +5451,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -4269,59 +5462,65 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -4329,10 +5528,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -4340,10 +5539,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
@@ -4351,10 +5550,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -4362,70 +5561,76 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
@@ -4433,59 +5638,65 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>29</v>
@@ -4493,31 +5704,224 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4544,189 +5948,189 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4763,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4771,7 +6175,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,7 +6183,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +6191,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4838,7 +6242,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,7 +6250,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +6258,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,7 +6266,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,7 +6274,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,7 +6282,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,7 +6332,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,7 +6340,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,7 +6348,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +6356,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +6364,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +6372,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5015,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,7 +6427,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,7 +6435,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,7 +6443,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,7 +6451,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5055,7 +6459,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,7 +6467,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,7 +6475,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/Example RTM.xlsx
+++ b/src/test/resources/Example RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="299">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -949,10 +949,131 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Happy Path Moon Viewing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user owns the planet "Earth"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the planet "Earth" owns the moon "Luna"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user should see "Luna" on the home page</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">SR2, PR4</t>
   </si>
   <si>
-    <t xml:space="preserve">Happy Path Moon Viewing</t>
+    <t xml:space="preserve">Sad Path Planet Viewing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user owns no planets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should not see any planets on the home page</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Moon Viewing</t>
   </si>
   <si>
     <r>
@@ -974,8 +1095,227 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">the user owns the planet "Earth"</t>
-    </r>
+      <t xml:space="preserve">the planet "Earth" does not own any moons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user should not see any moons for "Earth"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Path Planet Adding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user selects "Planet" from the options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the planet "&lt;valid planet name&gt;" does not exist in the database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a planet name "&lt;valid planet name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PR1, PR2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user tries to add the planet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&lt;valid planet name&gt;" should be added to the database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see the planet "&lt;valid planet name&gt; in their list of planets and moons</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Invalid Planet Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a planet name "&lt;invalid planet name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see a browser alert saying "Invalid planet name"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Planet Already Exists</t>
   </si>
   <si>
     <r>
@@ -997,7 +1337,30 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">the planet "Earth" owns the moon "Luna"</t>
+      <t xml:space="preserve">the planet "&lt;planet&gt;" exists in the database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the user provides planet name "&lt;planet&gt;"</t>
     </r>
   </si>
   <si>
@@ -1020,11 +1383,34 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">the user should see "Luna" on the home page</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Planet Viewing</t>
+      <t xml:space="preserve">the user should see a browser alert saying "Invalid planet name"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Path Planet with Image Adding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a valid planet name "&lt;planet&gt;"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1046,34 +1432,31 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> the user owns no planets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user should not see any planets on the home page</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Moon Viewing</t>
+      <t xml:space="preserve"> the user provides a planet image "&lt;filename&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the planet "&lt;planet&gt;" should be added to the database</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1095,7 +1478,59 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">the planet "Earth" does not own any moons</t>
+      <t xml:space="preserve">the planet "&lt;planet&gt;" should have image data</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PR5, PR6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see an updated list of planets/moons</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sad Path Planet with Bad Image Adding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides an invalid image "&lt;filename&gt;"</t>
     </r>
   </si>
   <si>
@@ -1118,11 +1553,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">the user should not see any moons for "Earth"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy Path Planet Adding</t>
+      <t xml:space="preserve">the user should see a browser alert saying "Invalid file type"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Path Moon Adding</t>
   </si>
   <si>
     <r>
@@ -1144,8 +1579,34 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> the user selects "Planet" from the options</t>
-    </r>
+      <t xml:space="preserve"> the user selects "Moon" from the options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides a moon "&lt;valid moon name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MR1, MR2</t>
   </si>
   <si>
     <r>
@@ -1167,468 +1628,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> the planet "&lt;valid planet name&gt;" does not exist in the database</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides a planet name "&lt;valid planet name&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">PR1, PR2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user tries to add the planet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"&lt;valid planet name&gt;" should be added to the database</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user should see the planet "&lt;valid planet name&gt; in their list of planets and moons</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Invalid Planet Name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides a planet name "&lt;invalid planet name&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user should see a browser alert saying "Invalid planet name"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Planet Already Exists</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">the planet "&lt;planet&gt;" exists in the database</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">the user provides planet name "&lt;planet&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">the user should see a browser alert saying "Invalid planet name"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy Path Planet with Image Adding</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides a valid planet name "&lt;planet&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides a planet image "&lt;filename&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">the planet "&lt;planet&gt;" should be added to the database</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">the planet "&lt;planet&gt;" should have image data</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">PR5, PR6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user should see an updated list of planets/moons</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sad Path Planet with Bad Image Adding</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides an invalid image "&lt;filename&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">the user should see a browser alert saying "Invalid file type"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy Path Moon Adding</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user selects "Moon" from the options</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides a moon "&lt;valid moon name&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">MR1, MR2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides the planet that owns the moon</t>
+      <t xml:space="preserve"> the user provides the planet "Earth" that owns the moon</t>
     </r>
   </si>
   <si>
@@ -3113,10 +3113,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C94" activeCellId="0" sqref="C94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3693,6 +3693,9 @@
       <c r="C50" s="9" t="s">
         <v>90</v>
       </c>
+      <c r="D50" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="8"/>
     </row>
@@ -3712,7 +3715,7 @@
         <v>92</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="8"/>
@@ -3728,7 +3731,7 @@
         <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F53" s="8" t="n">
         <v>23</v>
@@ -3747,7 +3750,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="8"/>
@@ -3756,7 +3759,7 @@
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="8"/>
@@ -3765,10 +3768,10 @@
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="8"/>
@@ -3850,7 +3853,7 @@
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="8"/>
@@ -3957,7 +3960,7 @@
         <v>111</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="8"/>
@@ -4282,7 +4285,7 @@
       <c r="A104" s="10"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="8"/>
@@ -4291,19 +4294,16 @@
       <c r="A105" s="10"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="10"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="8"/>
@@ -4312,25 +4312,28 @@
       <c r="A107" s="10"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="8"/>
@@ -4339,54 +4342,54 @@
       <c r="A110" s="10"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10" t="s">
+    <row r="111" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="10"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B112" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C112" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F111" s="8" t="n">
+      <c r="F112" s="8" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="10"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="10"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="8"/>
@@ -4395,63 +4398,63 @@
       <c r="A115" s="10"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
+    <row r="118" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="10"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B119" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C119" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F118" s="8" t="n">
+      <c r="F119" s="8" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="10"/>
       <c r="B120" s="8"/>
-      <c r="C120" s="6" t="s">
-        <v>143</v>
+      <c r="C120" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="8"/>
@@ -4459,17 +4462,17 @@
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="10"/>
       <c r="B121" s="8"/>
-      <c r="C121" s="9" t="s">
-        <v>130</v>
+      <c r="C121" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="10"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="8"/>
@@ -4478,72 +4481,72 @@
       <c r="A123" s="10"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10" t="s">
+    <row r="126" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="10"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B127" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C127" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F126" s="8" t="n">
+      <c r="F127" s="8" t="n">
         <v>33</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="10"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="10"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="8"/>
@@ -4552,7 +4555,7 @@
       <c r="A130" s="10"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="8"/>
@@ -4561,25 +4564,25 @@
       <c r="A131" s="10"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10"/>
       <c r="B133" s="8"/>
       <c r="C133" s="9" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="8"/>
@@ -4587,11 +4590,8 @@
     <row r="134" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10"/>
       <c r="B134" s="8"/>
-      <c r="C134" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>152</v>
+      <c r="C134" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="8"/>
@@ -4599,55 +4599,58 @@
     <row r="135" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10"/>
       <c r="B135" s="8"/>
-      <c r="C135" s="9" t="s">
-        <v>136</v>
+      <c r="C135" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10" t="s">
+    <row r="136" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="10"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B137" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C137" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F136" s="8" t="n">
+      <c r="F137" s="8" t="n">
         <v>32</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="10"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="10"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="8"/>
@@ -4656,7 +4659,7 @@
       <c r="A140" s="10"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="8"/>
@@ -4665,99 +4668,99 @@
       <c r="A141" s="10"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10"/>
       <c r="B143" s="8"/>
       <c r="C143" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="s">
+    <row r="144" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="10"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B145" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C145" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F144" s="8" t="n">
+      <c r="F145" s="8" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" s="8"/>
-    </row>
-    <row r="146" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="9" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="8"/>
@@ -4766,66 +4769,66 @@
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="152" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7"/>
+      <c r="B152" s="8"/>
       <c r="C152" s="9" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="2"/>
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F152" s="8" t="n">
+      <c r="F153" s="8" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E153" s="2"/>
-      <c r="F153" s="8"/>
-    </row>
-    <row r="154" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="8"/>
@@ -4834,54 +4837,54 @@
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="s">
+    <row r="159" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" s="8"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B160" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C160" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D160" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F159" s="8" t="n">
+      <c r="F160" s="8" t="n">
         <v>35</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
-      <c r="C161" s="12" t="s">
-        <v>166</v>
+      <c r="C161" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="8"/>
@@ -4889,8 +4892,8 @@
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
-      <c r="C162" s="9" t="s">
-        <v>105</v>
+      <c r="C162" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="8"/>
@@ -4899,7 +4902,7 @@
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="8"/>
@@ -4908,54 +4911,54 @@
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7" t="s">
+    <row r="166" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="7"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" s="8"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B167" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C167" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F166" s="8" t="n">
+      <c r="F167" s="8" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E167" s="2"/>
-      <c r="F167" s="8"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="8"/>
@@ -4964,7 +4967,7 @@
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="8"/>
@@ -4973,7 +4976,7 @@
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="8"/>
@@ -4982,7 +4985,7 @@
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="8"/>
@@ -4991,72 +4994,72 @@
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7" t="s">
+    <row r="174" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="7"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="8"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B175" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C175" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F174" s="8" t="n">
+      <c r="F175" s="8" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E175" s="2"/>
-      <c r="F175" s="8"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="8"/>
@@ -5065,7 +5068,7 @@
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="8"/>
@@ -5074,54 +5077,54 @@
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7" t="s">
+    <row r="182" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="8"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B183" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C183" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F182" s="8" t="n">
+      <c r="F183" s="8" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E183" s="2"/>
-      <c r="F183" s="8"/>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="8"/>
@@ -5130,7 +5133,7 @@
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="8"/>
@@ -5139,16 +5142,16 @@
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="8"/>
@@ -5157,28 +5160,28 @@
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="8"/>
@@ -5187,16 +5190,22 @@
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="1"/>
+    <row r="192" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="7"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C193" s="1"/>
@@ -5224,6 +5233,9 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="1"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="116">
@@ -5299,52 +5311,52 @@
     <mergeCell ref="B96:B102"/>
     <mergeCell ref="E96:E102"/>
     <mergeCell ref="F96:F102"/>
-    <mergeCell ref="A103:A110"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="E103:E110"/>
-    <mergeCell ref="F103:F110"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="E111:E117"/>
-    <mergeCell ref="F111:F117"/>
-    <mergeCell ref="A118:A125"/>
-    <mergeCell ref="B118:B125"/>
-    <mergeCell ref="E118:E125"/>
-    <mergeCell ref="F118:F125"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="B126:B135"/>
-    <mergeCell ref="E126:E135"/>
-    <mergeCell ref="F126:F135"/>
-    <mergeCell ref="A136:A143"/>
-    <mergeCell ref="B136:B143"/>
-    <mergeCell ref="E136:E143"/>
-    <mergeCell ref="F136:F143"/>
-    <mergeCell ref="A144:A151"/>
-    <mergeCell ref="B144:B151"/>
-    <mergeCell ref="E144:E151"/>
-    <mergeCell ref="F144:F151"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="B152:B158"/>
-    <mergeCell ref="E152:E158"/>
-    <mergeCell ref="F152:F158"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="B159:B165"/>
-    <mergeCell ref="E159:E165"/>
-    <mergeCell ref="F159:F165"/>
-    <mergeCell ref="A166:A173"/>
-    <mergeCell ref="B166:B173"/>
-    <mergeCell ref="E166:E173"/>
-    <mergeCell ref="F166:F173"/>
-    <mergeCell ref="A174:A181"/>
-    <mergeCell ref="B174:B181"/>
-    <mergeCell ref="E174:E181"/>
-    <mergeCell ref="F174:F181"/>
-    <mergeCell ref="A182:A191"/>
-    <mergeCell ref="B182:B191"/>
-    <mergeCell ref="E182:E191"/>
-    <mergeCell ref="F182:F191"/>
+    <mergeCell ref="A103:A111"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="E103:E111"/>
+    <mergeCell ref="F103:F111"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="E112:E118"/>
+    <mergeCell ref="F112:F118"/>
+    <mergeCell ref="A119:A126"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="E119:E126"/>
+    <mergeCell ref="F119:F126"/>
+    <mergeCell ref="A127:A136"/>
+    <mergeCell ref="B127:B136"/>
+    <mergeCell ref="E127:E136"/>
+    <mergeCell ref="F127:F136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="B137:B144"/>
+    <mergeCell ref="E137:E144"/>
+    <mergeCell ref="F137:F144"/>
+    <mergeCell ref="A145:A152"/>
+    <mergeCell ref="B145:B152"/>
+    <mergeCell ref="E145:E152"/>
+    <mergeCell ref="F145:F152"/>
+    <mergeCell ref="A153:A159"/>
+    <mergeCell ref="B153:B159"/>
+    <mergeCell ref="E153:E159"/>
+    <mergeCell ref="F153:F159"/>
+    <mergeCell ref="A160:A166"/>
+    <mergeCell ref="B160:B166"/>
+    <mergeCell ref="E160:E166"/>
+    <mergeCell ref="F160:F166"/>
+    <mergeCell ref="A167:A174"/>
+    <mergeCell ref="B167:B174"/>
+    <mergeCell ref="E167:E174"/>
+    <mergeCell ref="F167:F174"/>
+    <mergeCell ref="A175:A182"/>
+    <mergeCell ref="B175:B182"/>
+    <mergeCell ref="E175:E182"/>
+    <mergeCell ref="F175:F182"/>
+    <mergeCell ref="A183:A192"/>
+    <mergeCell ref="B183:B192"/>
+    <mergeCell ref="E183:E192"/>
+    <mergeCell ref="F183:F192"/>
   </mergeCells>
-  <conditionalFormatting sqref="B202:B1048576 B1:B191">
+  <conditionalFormatting sqref="B203:B1048576 B1:B192">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Positive"</formula>
     </cfRule>
@@ -5369,8 +5381,8 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
